--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3847.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3847.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.017990256285386</v>
+        <v>2.667659044265747</v>
       </c>
       <c r="B1">
-        <v>1.442561339913433</v>
+        <v>4.846035003662109</v>
       </c>
       <c r="C1">
-        <v>2.712026642568384</v>
+        <v>6.860512733459473</v>
       </c>
       <c r="D1">
-        <v>4.696823769447103</v>
+        <v>6.696332454681396</v>
       </c>
       <c r="E1">
-        <v>2.452035411756731</v>
+        <v>5.300371170043945</v>
       </c>
     </row>
   </sheetData>
